--- a/総合テスト/管理者画面機能/管理者画面機能.xlsx
+++ b/総合テスト/管理者画面機能/管理者画面機能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://avantg-my.sharepoint.com/personal/kentaro_tamenori_avantcorp_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{267135EE-3523-4893-92CD-D905F715BE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10DAE4DF-4FF9-4D64-B4E6-95BE7402C99F}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{267135EE-3523-4893-92CD-D905F715BE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46CEF72C-6DA1-45F3-AD31-7F35536C21AE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="5" activeTab="7" xr2:uid="{CDB33AB4-8896-4BED-AA81-3C822544312C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="5" activeTab="5" xr2:uid="{CDB33AB4-8896-4BED-AA81-3C822544312C}"/>
   </bookViews>
   <sheets>
     <sheet name="ST-A-001_結果" sheetId="1" r:id="rId1"/>
@@ -823,6 +823,556 @@
         <a:xfrm>
           <a:off x="660400" y="13258800"/>
           <a:ext cx="7772400" cy="4199404"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E6826F-B1A6-CCFB-F663-1EE2D68DA8AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8585200" y="228600"/>
+          <a:ext cx="7772400" cy="3990568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40810C35-1577-FD80-65CC-5801D8B16946}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8585200" y="4343400"/>
+          <a:ext cx="7772400" cy="4047271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28064</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA7BE066-2366-FF4C-34BD-3587A046B0B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8585200" y="8458200"/>
+          <a:ext cx="7772400" cy="4142864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>221214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59883484-CFCF-8BAF-9545-AA751981B6F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8585200" y="12573000"/>
+          <a:ext cx="7772400" cy="4107414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>222842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B806721-0D0A-539D-A720-C94D9216B99A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8585200" y="16687800"/>
+          <a:ext cx="7772400" cy="4337642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>47464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6207D168-69AD-A816-9374-FF048C2C002E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8585200" y="21031200"/>
+          <a:ext cx="7772400" cy="3933664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>28825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1255AFF9-BAE1-A1F7-6D2B-4A1926D09771}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8585200" y="24917400"/>
+          <a:ext cx="7772400" cy="4143625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>40315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D06F478-866F-1511-AE1D-9926D6E9540C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8585200" y="29038550"/>
+          <a:ext cx="7772400" cy="3691565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>184554</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E41F74D3-7916-BE13-5C7C-712496E522F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8585200" y="32689800"/>
+          <a:ext cx="7772400" cy="3842154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>45310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94BCE116-40EE-1957-934E-6F327D6F3765}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8585200" y="36576000"/>
+          <a:ext cx="7772400" cy="3931510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>95042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F355B94F-DBE6-E983-9868-12910E7CB2BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8585200" y="40690800"/>
+          <a:ext cx="7772400" cy="3752642"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1543,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFD5EE0-6C8E-4A4B-ADE2-035C2B7227A1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N179" sqref="N179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1575,7 +2125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79077CDF-42F0-4F7D-BFEC-F55F4B2A353F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
